--- a/tp1/Resultats statistiques.xlsx
+++ b/tp1/Resultats statistiques.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993DDEE1-3039-4776-8C22-5296C731CFBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F98F7A-BA36-4603-AF77-065156AE9897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Nom Image</t>
   </si>
   <si>
-    <t>Codage predictif</t>
-  </si>
-  <si>
     <t>Image01hyp01</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>244.15415453910828</t>
   </si>
   <si>
-    <t>Codage par paires d'octets avec Huffman</t>
-  </si>
-  <si>
     <t>Resolution</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>310.6010353565216</t>
+  </si>
+  <si>
+    <t>Codage par paires d'octets</t>
+  </si>
+  <si>
+    <t>Codage predictif avec Huffman</t>
   </si>
 </sst>
 </file>
@@ -282,6 +282,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,30 +313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,297 +597,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>32768</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30848</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>32768</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30848</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>27974</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>23728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>57856</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5">
+        <v>54768</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4">
-        <v>30848</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4">
-        <v>26832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
-        <v>30848</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4">
-        <v>26832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
-        <v>27974</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4">
-        <v>23728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="E7" s="2">
+        <v>51568</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>53106</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>39048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>32256</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30149</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28650</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29393</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <v>24392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
         <v>57856</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="12">
-        <v>54768</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="12">
-        <v>43648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4">
-        <v>51568</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4">
-        <v>37600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
-        <v>53106</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E12" s="2">
+        <v>46739</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4">
-        <v>39048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
-        <v>32256</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4">
-        <v>30149</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4">
-        <v>26904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4">
-        <v>28650</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4">
-        <v>23096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4">
-        <v>29393</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4">
-        <v>24392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="G12" s="2">
+        <v>31672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
-        <v>57856</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4">
-        <v>46739</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E13" s="2">
+        <v>50297</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4">
-        <v>31672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="G13" s="2">
+        <v>27768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4">
-        <v>50297</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E14" s="2">
+        <v>51746</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="4">
-        <v>27768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4">
-        <v>51746</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>22208</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
@@ -896,11 +901,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
